--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3106650.106257747</v>
+        <v>3104105.513563463</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>180.8244779223036</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>130.1712092340063</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>113.7320450640842</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>15.40229248514481</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.5735752579619</v>
       </c>
       <c r="F5" t="n">
-        <v>29.62129854704329</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760058</v>
+        <v>92.85788772760031</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425938</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>85.72784911912902</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>108.8889729788973</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589145</v>
       </c>
       <c r="R7" t="n">
-        <v>14.60166575406318</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>72.89889574101127</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>216.4127801057174</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>200.4727983501269</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1215,13 +1215,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>20.2769799447086</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>115.4092584582088</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976929</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>77.84303991612551</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812011</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,13 +1847,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>65.44930784064623</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>80.33989744909022</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529832</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>589.7227393823982</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>589.7227393823982</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>400.3029543659134</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>400.3029543659134</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>210.8831693494285</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>197.6530347736123</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678506</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058967</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652801</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823982</v>
+        <v>540.7559564928853</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823982</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823982</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823982</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823982</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>589.7227393823982</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>589.7227393823982</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264285</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264285</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="T3" t="n">
-        <v>562.0569540263434</v>
+        <v>409.3994882033909</v>
       </c>
       <c r="U3" t="n">
-        <v>372.6371690098586</v>
+        <v>219.9797031869062</v>
       </c>
       <c r="V3" t="n">
-        <v>372.6371690098586</v>
+        <v>219.9797031869062</v>
       </c>
       <c r="W3" t="n">
-        <v>372.6371690098586</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="X3" t="n">
-        <v>183.2173839933736</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="Y3" t="n">
-        <v>183.2173839933736</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>943.6529682154453</v>
+        <v>731.358344430223</v>
       </c>
       <c r="C5" t="n">
-        <v>574.6904512750336</v>
+        <v>362.3958274898113</v>
       </c>
       <c r="D5" t="n">
-        <v>574.6904512750336</v>
+        <v>362.3958274898113</v>
       </c>
       <c r="E5" t="n">
-        <v>574.6904512750336</v>
+        <v>147.6750444009609</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921616</v>
+        <v>140.7295436517574</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>128.353902506253</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>128.353902506253</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675757</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017212</v>
+        <v>111.6705539017222</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746965</v>
+        <v>277.9807166746984</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030743</v>
+        <v>521.2049416030773</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709153</v>
+        <v>823.5081935709195</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582748</v>
+        <v>1135.316836582754</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079235</v>
+        <v>1416.413635079242</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332753</v>
+        <v>1621.822248332761</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837879</v>
+        <v>1727.902815837887</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540647</v>
+        <v>1727.902815837887</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540647</v>
+        <v>1586.994975598235</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540647</v>
+        <v>1375.135640734671</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540647</v>
+        <v>1121.497676406035</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540647</v>
+        <v>1121.497676406035</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.718566540647</v>
+        <v>1121.497676406035</v>
       </c>
       <c r="X5" t="n">
-        <v>1330.252808279567</v>
+        <v>1121.497676406035</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.252808279567</v>
+        <v>731.358344430223</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.55805631675757</v>
+        <v>295.604872586904</v>
       </c>
       <c r="C6" t="n">
-        <v>34.55805631675757</v>
+        <v>121.151843305777</v>
       </c>
       <c r="D6" t="n">
-        <v>34.55805631675757</v>
+        <v>121.151843305777</v>
       </c>
       <c r="E6" t="n">
-        <v>34.55805631675757</v>
+        <v>121.151843305777</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675757</v>
+        <v>121.151843305777</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675757</v>
+        <v>121.151843305777</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675757</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675757</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787501</v>
+        <v>61.66788464787555</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806057</v>
+        <v>186.1577239806068</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189967</v>
+        <v>399.8722171189987</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223484</v>
+        <v>668.6238185223514</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352457</v>
+        <v>958.8971200352498</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228316</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639505</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906546</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906546</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906546</v>
+        <v>1303.087768902147</v>
       </c>
       <c r="T6" t="n">
-        <v>1335.8897993117</v>
+        <v>1107.547150621902</v>
       </c>
       <c r="U6" t="n">
-        <v>1107.774657267257</v>
+        <v>879.4320085774588</v>
       </c>
       <c r="V6" t="n">
-        <v>872.6225490355139</v>
+        <v>879.4320085774588</v>
       </c>
       <c r="W6" t="n">
-        <v>618.3851923073123</v>
+        <v>879.4320085774588</v>
       </c>
       <c r="X6" t="n">
-        <v>410.5336921017795</v>
+        <v>671.5805083719259</v>
       </c>
       <c r="Y6" t="n">
-        <v>202.7733933368256</v>
+        <v>463.820209606972</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.0698922584622</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="C7" t="n">
-        <v>186.1337093305553</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="D7" t="n">
-        <v>186.1337093305553</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="E7" t="n">
-        <v>186.1337093305553</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="F7" t="n">
-        <v>186.1337093305553</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="G7" t="n">
-        <v>186.1337093305553</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675757</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675757</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675757</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574657</v>
+        <v>64.24066662574712</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584109</v>
+        <v>132.129986158412</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347963</v>
+        <v>206.9680378347978</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195355</v>
+        <v>287.8841338195375</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934702</v>
+        <v>342.3101561934727</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857988</v>
+        <v>369.8190495858016</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857988</v>
+        <v>332.5350520040931</v>
       </c>
       <c r="R7" t="n">
-        <v>355.0698922584622</v>
+        <v>332.5350520040931</v>
       </c>
       <c r="S7" t="n">
-        <v>355.0698922584622</v>
+        <v>332.5350520040931</v>
       </c>
       <c r="T7" t="n">
-        <v>355.0698922584622</v>
+        <v>108.1933045400015</v>
       </c>
       <c r="U7" t="n">
-        <v>355.0698922584622</v>
+        <v>108.1933045400015</v>
       </c>
       <c r="V7" t="n">
-        <v>355.0698922584622</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="W7" t="n">
-        <v>355.0698922584622</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="X7" t="n">
-        <v>355.0698922584622</v>
+        <v>34.55805631675774</v>
       </c>
       <c r="Y7" t="n">
-        <v>355.0698922584622</v>
+        <v>34.55805631675774</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.362210729296</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.399693788884</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821336</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838894</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F8" t="n">
-        <v>55.3598377942818</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809314</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232725</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711883</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904657</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904657</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904657</v>
+        <v>1351.910009448963</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904657</v>
+        <v>978.4442511878833</v>
       </c>
       <c r="Y8" t="n">
-        <v>1965.962050793418</v>
+        <v>588.3049192120716</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.528648459042</v>
+        <v>217.8222258192201</v>
       </c>
       <c r="C9" t="n">
-        <v>498.075619177915</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166637</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112082</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333489</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333489</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333489</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1055.886718537977</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>801.6493618097749</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>593.797861604242</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791101</v>
+        <v>386.0375628392881</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307324</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183966</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360035</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809314</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981547</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406003</v>
+        <v>411.1248508126812</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406003</v>
+        <v>411.1248508126812</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406003</v>
+        <v>411.1248508126812</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406003</v>
+        <v>121.9985297867047</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470406003</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,25 +5176,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5279,16 +5279,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,58 +6455,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311364</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032295</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613761</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,22 +7658,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405077</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>220.7351665485979</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>205.8445769401539</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667965</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26314,46 @@
         <v>718411.5486312486</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312484</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287559</v>
-      </c>
       <c r="I2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="M2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253106</v>
+        <v>270592.3620253134</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231953</v>
+        <v>115410.054023192</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742641</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854458</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881938</v>
+        <v>62913.63765881988</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.2536219755</v>
+        <v>27875.25362197476</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263466</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186738</v>
       </c>
       <c r="H4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="I4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.6960418674</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936808</v>
+        <v>76435.73471936824</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208467.7191353404</v>
+        <v>-208467.7191353401</v>
       </c>
       <c r="C6" t="n">
-        <v>164779.0289602226</v>
+        <v>164779.0289602201</v>
       </c>
       <c r="D6" t="n">
-        <v>343599.4226632833</v>
+        <v>343599.4226632864</v>
       </c>
       <c r="E6" t="n">
-        <v>-11139.15871128318</v>
+        <v>-11173.89663672012</v>
       </c>
       <c r="F6" t="n">
-        <v>590304.0488629809</v>
+        <v>590269.3109375454</v>
       </c>
       <c r="G6" t="n">
-        <v>590304.048862981</v>
+        <v>590269.3109375453</v>
       </c>
       <c r="H6" t="n">
-        <v>590304.0488629815</v>
+        <v>590269.3109375454</v>
       </c>
       <c r="I6" t="n">
-        <v>590304.0488629807</v>
+        <v>590269.3109375455</v>
       </c>
       <c r="J6" t="n">
-        <v>541239.1041344363</v>
+        <v>541204.3662090007</v>
       </c>
       <c r="K6" t="n">
-        <v>527390.4112041618</v>
+        <v>527355.6732787256</v>
       </c>
       <c r="L6" t="n">
-        <v>562428.7952410053</v>
+        <v>562394.0573155707</v>
       </c>
       <c r="M6" t="n">
-        <v>433157.6683113829</v>
+        <v>433122.9303859472</v>
       </c>
       <c r="N6" t="n">
-        <v>590304.0488629807</v>
+        <v>590269.3109375454</v>
       </c>
       <c r="O6" t="n">
-        <v>590304.0488629809</v>
+        <v>590269.3109375454</v>
       </c>
       <c r="P6" t="n">
-        <v>590304.0488629809</v>
+        <v>590269.3109375453</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950604</v>
+        <v>758.8996292950623</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594696</v>
+        <v>431.9757039594718</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261642</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821556</v>
+        <v>210.4296883821578</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262448</v>
+        <v>94.81103524262176</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931496</v>
+        <v>244.450116793152</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666946</v>
+        <v>110.1392527666914</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734839</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931498</v>
+        <v>244.4501167931518</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666946</v>
+        <v>110.1392527666916</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734839</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931496</v>
+        <v>244.450116793152</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666946</v>
+        <v>110.1392527666914</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734839</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>136.0693481839187</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.60460395604687</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>81.67755272791702</v>
+        <v>7.884010625681441</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377088</v>
+        <v>38.33818124377112</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945998</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715744</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>190.2804032921595</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.049135239016</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>173.4937091346025</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3567948142999</v>
       </c>
       <c r="F5" t="n">
-        <v>377.2547471946681</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425892</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,10 +27710,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>10.74252923333228</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937523</v>
+        <v>43.3208508493751</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.3306063007481</v>
+        <v>44.33060630074786</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>84.69623911854546</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304064</v>
+        <v>30.24193919304041</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589172</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1586507625593</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>179.2387475828167</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>166.3210615577631</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>185.7651403059267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.54359402336</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>117.3913286912165</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888585</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>174.2946034077025</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28567,13 +28567,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
     </row>
     <row r="45">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085668</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>31.2445460442936</v>
+        <v>31.24454604429368</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286699</v>
+        <v>258.9373162286706</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520263</v>
+        <v>388.0799144520273</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511769</v>
+        <v>481.4474502511781</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968092</v>
+        <v>535.7030533968104</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610688</v>
+        <v>544.3712888610702</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191482</v>
+        <v>514.0343715191494</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860957</v>
+        <v>438.7164434860968</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634651</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098727</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898973</v>
+        <v>69.5213077489899</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868534</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030885</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403513</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062476</v>
+        <v>56.2015291506249</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475934</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316627</v>
+        <v>263.5887514316633</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721884</v>
+        <v>354.4276051721893</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658079</v>
+        <v>413.6002979658089</v>
       </c>
       <c r="N6" t="n">
-        <v>424.547067146866</v>
+        <v>424.547067146867</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374448</v>
+        <v>388.3776244374457</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872485</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547494</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947716</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378871</v>
+        <v>6.579516597378887</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757161</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236994</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734525</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635547</v>
+        <v>96.7534822463557</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162528</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399135</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528485</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275345</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514997</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054701</v>
+        <v>61.53307486054716</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391197</v>
+        <v>23.84935392391203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830791</v>
+        <v>5.847259438830806</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656339</v>
+        <v>0.07464586517656358</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,10 +31844,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,7 +32561,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622658</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198366</v>
+        <v>77.89141170198428</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070458</v>
+        <v>167.9900634070467</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811897</v>
+        <v>245.6810352811909</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695365</v>
+        <v>305.3568201695377</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644779</v>
+        <v>314.9582252644793</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974614</v>
+        <v>283.9361600974627</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308262</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890156</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092671</v>
+        <v>27.38366498092708</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573037</v>
+        <v>125.7473124573043</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923142</v>
+        <v>215.8732253923151</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437896</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635327</v>
+        <v>293.2053550635337</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930003</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729183</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872792</v>
+        <v>68.38629016872844</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554444</v>
+        <v>29.98243465554484</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501449</v>
+        <v>68.57507023501498</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230844</v>
+        <v>75.59399159230898</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761533</v>
+        <v>81.73343028761582</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569168</v>
+        <v>54.97578017569214</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235205</v>
+        <v>27.78676100235245</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,7 +36209,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402476</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
